--- a/GameMaster/RPGTale/Data/Data_Excel/FactoryFormulaMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/FactoryFormulaMetaData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4217C5C-39C2-4CF4-8109-69DBAEF03397}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A413D-1E6F-4088-A877-21837C51E0C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15540" yWindow="4290" windowWidth="21855" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1680" windowWidth="21855" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormulaData" sheetId="1" r:id="rId1"/>
-    <sheet name="TextMap_Formula" sheetId="2" r:id="rId2"/>
+    <sheet name="FormulaInfo" sheetId="3" r:id="rId2"/>
+    <sheet name="TextMap_Formula" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>FormulaName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +70,22 @@
   </si>
   <si>
     <t>FormulaID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormulaList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,6 +552,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5155AB2-6BAF-457F-956E-0827BADBC954}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7762F6DA-4F54-4058-9541-7415ED44B9A5}">
   <dimension ref="A1:B2"/>
   <sheetViews>
